--- a/evaluation/excels/2020-09-08/Eval9/9_Evaluation_R.xlsx
+++ b/evaluation/excels/2020-09-08/Eval9/9_Evaluation_R.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30124D3D-0662-49C5-AD11-39BABD4B8EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA7CF1-529C-45D6-B544-BC1508245D6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" tabRatio="628" activeTab="5" xr2:uid="{D4B06137-9A76-4397-8B77-3DD532F340ED}"/>
+    <workbookView xWindow="2475" yWindow="1755" windowWidth="23040" windowHeight="11955" tabRatio="628" activeTab="8" xr2:uid="{D4B06137-9A76-4397-8B77-3DD532F340ED}"/>
   </bookViews>
   <sheets>
     <sheet name="General description" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="435">
   <si>
     <t>Automated (Named) Entity Annotation of the Domain-Specific German Text Data: User study</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>1. Look at all terms in a section to find out what the section is semantically about, i.e., the shared meaning represented by the majority of the terms in the group, which we call the group's semantic concept. Assess the overall relevance of the terms to each other with values from 0 to 9, where 9 is equal to "a group of  closely related terms" and 0 is equal to "randomly combined terms". To do so, type a digit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>Part 1 - 2</t>
@@ -1437,9 +1434,6 @@
       </rPr>
       <t>score</t>
     </r>
-  </si>
-  <si>
-    <t>Notes:</t>
   </si>
   <si>
     <r>
@@ -1505,33 +1499,6 @@
     </r>
   </si>
   <si>
-    <t>Most term are related to travel, exept the italicized keywords</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <t>These are all actions to get something done, but they have very different meanings</t>
-  </si>
-  <si>
-    <t>All terms have to do with travel reimbursement</t>
-  </si>
-  <si>
-    <t>All terms describe school trips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: </t>
-  </si>
-  <si>
-    <t>Very broad theme of 'time'</t>
-  </si>
-  <si>
-    <t>Erholung is the oposite of the remaining terms!</t>
-  </si>
-  <si>
-    <t>Weltraum is unlike the others</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Legend: </t>
     </r>
@@ -1556,162 +1523,6 @@
       </rPr>
       <t xml:space="preserve"> terms do not 'fit'</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ablauf is such a generic concept that it always kind of fits! So this is an accurate summary. </t>
-  </si>
-  <si>
-    <t>These terms are super random</t>
-  </si>
-  <si>
-    <t>Thema = topic, so it's very generic, and always fits</t>
-  </si>
-  <si>
-    <t>terms also have no clear topical relatedness, but a few are indeed related to 'time'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontinent and North Amertica are not 'states'. The rest are. </t>
-  </si>
-  <si>
-    <t>No theme</t>
-  </si>
-  <si>
-    <t>The term 'Society' always fits ;)</t>
-  </si>
-  <si>
-    <t>Wesen can also mean living individual, and in that sense all these terms are describing humans, but it's a far stretch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the rest are all about work </t>
-  </si>
-  <si>
-    <t>Emission does not belong</t>
-  </si>
-  <si>
-    <t>all are humans, 4 have to do with people traveling</t>
-  </si>
-  <si>
-    <t>all have to do with traveling</t>
-  </si>
-  <si>
-    <t>3 are unlike the others</t>
-  </si>
-  <si>
-    <t>All are very broadly related to 'culture'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ablauf = process. That theme kind of fits to lots of terms. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theme: transport of people. 'Gang' does not fit. </t>
-  </si>
-  <si>
-    <t>Theme:  work and society</t>
-  </si>
-  <si>
-    <t>only a few terms don't belong</t>
-  </si>
-  <si>
-    <t>3 do not belong, the rest are states</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 do not fit the label. The rest do. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wow! That's really clever. 2 of these are 'political movements' (in italic) </t>
-  </si>
-  <si>
-    <t>And the rest are related to movement by travel. So the label 'movement'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covers them  all! </t>
-  </si>
-  <si>
-    <t>nothing fits together here, some terms are loosely related to 'judgement'</t>
-  </si>
-  <si>
-    <t>Many  terms have to do with the movement or travel of people</t>
-  </si>
-  <si>
-    <t>Most terms have to do with school excursions and trips</t>
-  </si>
-  <si>
-    <t>only 1 is unlike the rest</t>
-  </si>
-  <si>
-    <t>1 is unlike the rest</t>
-  </si>
-  <si>
-    <t>All share the theme 'Dienstreise'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all have to do with travel expenses </t>
-  </si>
-  <si>
-    <t>All terms have to doo with travel reimbursement while on business trips</t>
-  </si>
-  <si>
-    <t>The theme 'Geld' is broadly correct, but not specific enough</t>
-  </si>
-  <si>
-    <t>All are people aside from 2 items</t>
-  </si>
-  <si>
-    <t>The theme is 'places'</t>
-  </si>
-  <si>
-    <t>All have to do with public transport or movement</t>
-  </si>
-  <si>
-    <t>at most 3 terms are related to Arbeit!</t>
-  </si>
-  <si>
-    <t>The theme of a few terms is 'Verkehr'</t>
-  </si>
-  <si>
-    <t>The theme is 'non-profits and organizations'</t>
-  </si>
-  <si>
-    <t>Reise or Ausflug is the theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only  2 words are related. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">But 'word' is the theme of any list of words, lol ;) </t>
-  </si>
-  <si>
-    <t>only one is unlike the others</t>
-  </si>
-  <si>
-    <t>All terms are activities</t>
-  </si>
-  <si>
-    <t>maybee 'society'</t>
-  </si>
-  <si>
-    <t>No specific theme</t>
-  </si>
-  <si>
-    <t>all have engines except 'Fahrrad'</t>
-  </si>
-  <si>
-    <t>all are ways of transport</t>
-  </si>
-  <si>
-    <t>all are regions</t>
-  </si>
-  <si>
-    <t>most are countries</t>
-  </si>
-  <si>
-    <t>very broad categories, no uniting theme</t>
-  </si>
-  <si>
-    <t>All have to do with schoool or teaching, but they describe entirely different concepts</t>
   </si>
   <si>
     <t xml:space="preserve">Another note on the study design: Sometimes I'm rating very long lists, sometimes very short lists. The results won't really be comparable. Highly subjective. </t>
@@ -2967,10 +2778,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3291,7 +3098,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="D2" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" customHeight="1">
@@ -3304,7 +3111,7 @@
     </row>
     <row r="4" spans="1:6" ht="45">
       <c r="A4" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C4" s="31"/>
     </row>
@@ -3322,7 +3129,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1">
@@ -3336,18 +3143,18 @@
         <v>8</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="39.75" customHeight="1">
       <c r="C9" s="31"/>
       <c r="D9" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="D10" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75">
@@ -3365,40 +3172,40 @@
     </row>
     <row r="34" spans="3:4">
       <c r="D34" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="D35" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="D36" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="3:4">
       <c r="D39" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="3:4">
       <c r="D40" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="D41" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -3425,631 +3232,631 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>47</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>48</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>50</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>51</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>52</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>61</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>63</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>64</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>66</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>69</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>70</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>71</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>72</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>73</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>74</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>76</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>77</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>78</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
         <v>79</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>80</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>81</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>82</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>83</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AI6" t="s">
         <v>84</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AK6" t="s">
         <v>85</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
         <v>87</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>88</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>90</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>91</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>92</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>93</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>94</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>95</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>96</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>97</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>98</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>100</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>101</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>102</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AI7" t="s">
         <v>103</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AK7" t="s">
         <v>104</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
         <v>106</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>107</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>108</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>109</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>110</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>111</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>112</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>114</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>115</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>116</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
         <v>117</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AA8" t="s">
         <v>118</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>119</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>120</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>121</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AI8" t="s">
         <v>122</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AK8" t="s">
         <v>123</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:37">
       <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
         <v>125</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>126</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>127</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>128</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>129</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>130</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>131</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>132</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>133</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>134</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>135</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Y9" t="s">
         <v>136</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AA9" t="s">
         <v>137</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>138</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>139</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AG9" t="s">
         <v>140</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AI9" t="s">
         <v>141</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AK9" t="s">
         <v>142</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:37">
       <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
         <v>144</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>145</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>146</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>147</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>148</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>149</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>150</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>151</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>153</v>
       </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>154</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Y10" t="s">
         <v>155</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AA10" t="s">
         <v>156</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>157</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AE10" t="s">
         <v>158</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AG10" t="s">
         <v>159</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AI10" t="s">
         <v>160</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AK10" t="s">
         <v>161</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:37">
       <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
         <v>163</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>164</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>165</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>166</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>167</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>168</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>169</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>170</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>171</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>172</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>173</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Y11" t="s">
         <v>174</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:37">
       <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" t="s">
         <v>176</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>177</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>178</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>179</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>180</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>181</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>182</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>183</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:37">
       <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" t="s">
         <v>185</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>186</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>187</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>188</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>189</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>190</v>
-      </c>
-      <c r="M13" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" t="s">
         <v>192</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>193</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>194</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>195</v>
-      </c>
-      <c r="I14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:37">
       <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" t="s">
         <v>197</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>198</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>199</v>
-      </c>
-      <c r="G15" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
         <v>201</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>202</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>203</v>
-      </c>
-      <c r="G16" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" t="s">
         <v>205</v>
-      </c>
-      <c r="C17" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" t="s">
         <v>207</v>
-      </c>
-      <c r="C18" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" t="s">
         <v>209</v>
-      </c>
-      <c r="C19" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" t="s">
         <v>211</v>
-      </c>
-      <c r="C20" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" t="s">
         <v>213</v>
-      </c>
-      <c r="C21" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" t="s">
         <v>215</v>
-      </c>
-      <c r="C22" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4070,908 +3877,908 @@
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>224</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>225</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>226</v>
       </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
         <v>227</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
         <v>228</v>
       </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
         <v>229</v>
       </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" t="s">
         <v>230</v>
       </c>
-      <c r="R1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" t="s">
         <v>231</v>
       </c>
-      <c r="V1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" t="s">
         <v>232</v>
       </c>
-      <c r="X1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" t="s">
         <v>233</v>
       </c>
-      <c r="Z1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" t="s">
         <v>234</v>
       </c>
-      <c r="AD1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" t="s">
         <v>235</v>
       </c>
-      <c r="AF1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" t="s">
         <v>236</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>237</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN1" t="s">
         <v>238</v>
       </c>
-      <c r="AM1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP1" t="s">
         <v>239</v>
       </c>
-      <c r="AO1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>240</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
         <v>242</v>
       </c>
-      <c r="G6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>243</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>244</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>245</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>246</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
+        <v>70</v>
+      </c>
+      <c r="W6" t="s">
         <v>247</v>
       </c>
-      <c r="U6" t="s">
-        <v>71</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
         <v>248</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>249</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE6" t="s">
         <v>250</v>
       </c>
-      <c r="AC6" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK6" t="s">
         <v>251</v>
       </c>
-      <c r="AG6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>252</v>
-      </c>
       <c r="AM6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AQ6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:43">
       <c r="A7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
         <v>253</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" t="s">
         <v>254</v>
       </c>
-      <c r="E7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" t="s">
         <v>255</v>
       </c>
-      <c r="M7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
+        <v>154</v>
+      </c>
+      <c r="U7" t="s">
+        <v>178</v>
+      </c>
+      <c r="W7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y7" t="s">
         <v>256</v>
       </c>
-      <c r="S7" t="s">
-        <v>155</v>
-      </c>
-      <c r="U7" t="s">
-        <v>179</v>
-      </c>
-      <c r="W7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC7" t="s">
         <v>257</v>
       </c>
-      <c r="AA7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>258</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>259</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AI7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK7" t="s">
         <v>260</v>
       </c>
-      <c r="AI7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK7" t="s">
+      <c r="AM7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO7" t="s">
         <v>261</v>
       </c>
-      <c r="AM7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>262</v>
-      </c>
       <c r="AQ7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
         <v>263</v>
       </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>264</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
         <v>265</v>
       </c>
-      <c r="I8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" t="s">
         <v>266</v>
       </c>
-      <c r="M8" t="s">
-        <v>120</v>
-      </c>
-      <c r="O8" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>267</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
+        <v>203</v>
+      </c>
+      <c r="W8" t="s">
         <v>268</v>
       </c>
-      <c r="U8" t="s">
-        <v>204</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE8" t="s">
         <v>269</v>
       </c>
-      <c r="Y8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>270</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AI8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM8" t="s">
         <v>271</v>
       </c>
-      <c r="AI8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM8" t="s">
+      <c r="AO8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>272</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:43">
       <c r="A9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" t="s">
         <v>274</v>
       </c>
-      <c r="C9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+      <c r="M9" t="s">
         <v>275</v>
       </c>
-      <c r="G9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K9" t="s">
-        <v>197</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>276</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>277</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>278</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
+        <v>194</v>
+      </c>
+      <c r="W9" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y9" t="s">
         <v>279</v>
       </c>
-      <c r="U9" t="s">
-        <v>195</v>
-      </c>
-      <c r="W9" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="AA9" t="s">
         <v>280</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE9" t="s">
         <v>281</v>
       </c>
-      <c r="AC9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE9" t="s">
+      <c r="AG9" t="s">
         <v>282</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AI9" t="s">
         <v>283</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AK9" t="s">
         <v>284</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AM9" t="s">
         <v>285</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AO9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>286</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
         <v>288</v>
       </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
         <v>289</v>
       </c>
-      <c r="I10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="Q10" t="s">
+        <v>290</v>
+      </c>
+      <c r="S10" t="s">
+        <v>291</v>
+      </c>
+      <c r="U10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W10" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG10" t="s">
         <v>98</v>
       </c>
-      <c r="O10" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>291</v>
-      </c>
-      <c r="S10" t="s">
-        <v>292</v>
-      </c>
-      <c r="U10" t="s">
-        <v>90</v>
-      </c>
-      <c r="W10" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>295</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE10" t="s">
+      <c r="AI10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM10" t="s">
         <v>297</v>
       </c>
-      <c r="AG10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM10" t="s">
+      <c r="AO10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>298</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" t="s">
         <v>300</v>
       </c>
-      <c r="C11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" t="s">
         <v>301</v>
       </c>
-      <c r="G11" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" t="s">
-        <v>206</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>302</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>303</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>304</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>305</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
+        <v>146</v>
+      </c>
+      <c r="W11" t="s">
         <v>306</v>
       </c>
-      <c r="U11" t="s">
-        <v>147</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="Y11" t="s">
         <v>307</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AA11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC11" t="s">
         <v>308</v>
       </c>
-      <c r="AA11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>309</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AG11" t="s">
         <v>310</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AI11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK11" t="s">
         <v>311</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>215</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" t="s">
         <v>313</v>
       </c>
-      <c r="E12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>314</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>315</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" t="s">
         <v>316</v>
       </c>
-      <c r="O12" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
+        <v>174</v>
+      </c>
+      <c r="U12" t="s">
+        <v>108</v>
+      </c>
+      <c r="W12" t="s">
         <v>317</v>
       </c>
-      <c r="S12" t="s">
-        <v>175</v>
-      </c>
-      <c r="U12" t="s">
-        <v>109</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="Y12" t="s">
         <v>318</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE12" t="s">
         <v>319</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" t="s">
         <v>321</v>
       </c>
-      <c r="G13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" t="s">
-        <v>202</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O13" t="s">
         <v>322</v>
       </c>
-      <c r="M13" t="s">
-        <v>158</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>323</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
+        <v>227</v>
+      </c>
+      <c r="U13" t="s">
+        <v>161</v>
+      </c>
+      <c r="W13" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y13" t="s">
         <v>324</v>
       </c>
-      <c r="S13" t="s">
-        <v>228</v>
-      </c>
-      <c r="U13" t="s">
-        <v>162</v>
-      </c>
-      <c r="W13" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>325</v>
-      </c>
       <c r="AA13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" t="s">
         <v>326</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>327</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>328</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>329</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>330</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
+        <v>169</v>
+      </c>
+      <c r="O14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>155</v>
+      </c>
+      <c r="S14" t="s">
+        <v>142</v>
+      </c>
+      <c r="U14" t="s">
+        <v>127</v>
+      </c>
+      <c r="W14" t="s">
         <v>331</v>
       </c>
-      <c r="M14" t="s">
-        <v>170</v>
-      </c>
-      <c r="O14" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>156</v>
-      </c>
-      <c r="S14" t="s">
-        <v>143</v>
-      </c>
-      <c r="U14" t="s">
-        <v>128</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="Y14" t="s">
         <v>332</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:43">
       <c r="A15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
         <v>334</v>
       </c>
-      <c r="C15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" t="s">
         <v>335</v>
       </c>
-      <c r="G15" t="s">
-        <v>182</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>336</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>337</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
         <v>338</v>
       </c>
-      <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>339</v>
-      </c>
       <c r="S15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="s">
         <v>340</v>
       </c>
-      <c r="G16" t="s">
-        <v>220</v>
-      </c>
-      <c r="I16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K16" t="s">
-        <v>171</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q16" t="s">
         <v>341</v>
-      </c>
-      <c r="O16" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
         <v>343</v>
       </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>344</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>345</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>346</v>
       </c>
-      <c r="K17" t="s">
-        <v>347</v>
-      </c>
       <c r="M17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" t="s">
         <v>348</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" t="s">
         <v>349</v>
       </c>
-      <c r="G18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" t="s">
-        <v>196</v>
-      </c>
-      <c r="K18" t="s">
-        <v>350</v>
-      </c>
       <c r="M18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
+        <v>350</v>
+      </c>
+      <c r="E19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
         <v>351</v>
       </c>
-      <c r="E19" t="s">
-        <v>194</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
         <v>352</v>
       </c>
-      <c r="I19" t="s">
-        <v>198</v>
-      </c>
-      <c r="K19" t="s">
-        <v>353</v>
-      </c>
       <c r="M19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
+        <v>354</v>
+      </c>
+      <c r="G21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" t="s">
         <v>355</v>
-      </c>
-      <c r="G21" t="s">
-        <v>169</v>
-      </c>
-      <c r="I21" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" t="s">
         <v>358</v>
       </c>
-      <c r="C23" t="s">
-        <v>359</v>
-      </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -4992,548 +4799,548 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>365</v>
+      </c>
+      <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>368</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
+        <v>369</v>
+      </c>
+      <c r="T1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" t="s">
+        <v>370</v>
+      </c>
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>365</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>366</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
-        <v>367</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>368</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="AA1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" t="s">
         <v>46</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>369</v>
-      </c>
-      <c r="R1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" t="s">
-        <v>370</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" t="s">
-        <v>371</v>
-      </c>
-      <c r="X1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
         <v>373</v>
       </c>
-      <c r="C6" t="s">
+      <c r="M6" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s">
+        <v>150</v>
+      </c>
+      <c r="U6" t="s">
+        <v>138</v>
+      </c>
+      <c r="W6" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA6" t="s">
         <v>164</v>
       </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" t="s">
-        <v>374</v>
-      </c>
-      <c r="M6" t="s">
-        <v>169</v>
-      </c>
-      <c r="O6" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>77</v>
-      </c>
-      <c r="S6" t="s">
-        <v>151</v>
-      </c>
-      <c r="U6" t="s">
-        <v>139</v>
-      </c>
-      <c r="W6" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>165</v>
-      </c>
       <c r="AC6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U7" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE7" t="s">
         <v>82</v>
-      </c>
-      <c r="W7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" t="s">
         <v>152</v>
       </c>
-      <c r="G8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" t="s">
-        <v>295</v>
-      </c>
-      <c r="M8" t="s">
-        <v>150</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="S8" t="s">
+        <v>93</v>
+      </c>
+      <c r="U8" t="s">
+        <v>157</v>
+      </c>
+      <c r="W8" t="s">
         <v>97</v>
       </c>
-      <c r="Q8" t="s">
-        <v>153</v>
-      </c>
-      <c r="S8" t="s">
-        <v>94</v>
-      </c>
-      <c r="U8" t="s">
-        <v>158</v>
-      </c>
-      <c r="W8" t="s">
-        <v>98</v>
-      </c>
       <c r="Y8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M9" t="s">
+        <v>181</v>
+      </c>
+      <c r="O9" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" t="s">
         <v>182</v>
       </c>
-      <c r="O9" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>96</v>
-      </c>
-      <c r="S9" t="s">
-        <v>183</v>
-      </c>
       <c r="U9" t="s">
+        <v>100</v>
+      </c>
+      <c r="W9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE9" t="s">
         <v>101</v>
-      </c>
-      <c r="W9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" t="s">
+        <v>280</v>
+      </c>
+      <c r="M10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q10" t="s">
         <v>114</v>
       </c>
-      <c r="G10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" t="s">
-        <v>162</v>
-      </c>
-      <c r="K10" t="s">
-        <v>281</v>
-      </c>
-      <c r="M10" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>115</v>
-      </c>
       <c r="S10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>133</v>
+      </c>
+      <c r="S11" t="s">
         <v>112</v>
-      </c>
-      <c r="O11" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>134</v>
-      </c>
-      <c r="S11" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -5554,719 +5361,719 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
         <v>225</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>339</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>299</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" t="s">
+        <v>230</v>
+      </c>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" t="s">
         <v>382</v>
       </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>226</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
-        <v>291</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>340</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>300</v>
-      </c>
-      <c r="R1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>231</v>
-      </c>
-      <c r="V1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" t="s">
         <v>383</v>
       </c>
-      <c r="X1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>384</v>
-      </c>
       <c r="AD1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" t="s">
+        <v>241</v>
+      </c>
+      <c r="M6" t="s">
+        <v>255</v>
+      </c>
+      <c r="O6" t="s">
         <v>254</v>
       </c>
-      <c r="E6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" t="s">
-        <v>334</v>
-      </c>
-      <c r="I6" t="s">
-        <v>227</v>
-      </c>
-      <c r="K6" t="s">
-        <v>242</v>
-      </c>
-      <c r="M6" t="s">
-        <v>256</v>
-      </c>
-      <c r="O6" t="s">
-        <v>255</v>
-      </c>
       <c r="Q6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S6" t="s">
+        <v>90</v>
+      </c>
+      <c r="U6" t="s">
+        <v>165</v>
+      </c>
+      <c r="W6" t="s">
         <v>91</v>
       </c>
-      <c r="U6" t="s">
-        <v>166</v>
-      </c>
-      <c r="W6" t="s">
-        <v>92</v>
-      </c>
       <c r="Y6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Y7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AE7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AC8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AE8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G9" t="s">
         <v>252</v>
       </c>
-      <c r="E9" t="s">
-        <v>262</v>
-      </c>
-      <c r="G9" t="s">
-        <v>253</v>
-      </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
+        <v>385</v>
+      </c>
+      <c r="M9" t="s">
+        <v>279</v>
+      </c>
+      <c r="O9" t="s">
         <v>386</v>
       </c>
-      <c r="M9" t="s">
-        <v>280</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>387</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
+        <v>313</v>
+      </c>
+      <c r="U9" t="s">
+        <v>194</v>
+      </c>
+      <c r="W9" t="s">
         <v>388</v>
       </c>
-      <c r="S9" t="s">
-        <v>314</v>
-      </c>
-      <c r="U9" t="s">
-        <v>195</v>
-      </c>
-      <c r="W9" t="s">
-        <v>389</v>
-      </c>
       <c r="Y9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AA9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AC9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AE9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" t="s">
         <v>288</v>
       </c>
-      <c r="C10" t="s">
-        <v>294</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="K10" t="s">
+        <v>274</v>
+      </c>
+      <c r="M10" t="s">
+        <v>290</v>
+      </c>
+      <c r="O10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>389</v>
+      </c>
+      <c r="S10" t="s">
+        <v>201</v>
+      </c>
+      <c r="U10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W10" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA10" t="s">
         <v>80</v>
       </c>
-      <c r="G10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" t="s">
-        <v>289</v>
-      </c>
-      <c r="K10" t="s">
-        <v>275</v>
-      </c>
-      <c r="M10" t="s">
-        <v>291</v>
-      </c>
-      <c r="O10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>390</v>
-      </c>
-      <c r="S10" t="s">
-        <v>202</v>
-      </c>
-      <c r="U10" t="s">
-        <v>90</v>
-      </c>
-      <c r="W10" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>81</v>
-      </c>
       <c r="AC10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AE10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AA13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -6287,440 +6094,440 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>395</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>396</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
+        <v>397</v>
+      </c>
+      <c r="T1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" t="s">
+        <v>368</v>
+      </c>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>395</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
-        <v>396</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>397</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" t="s">
-        <v>398</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>369</v>
-      </c>
-      <c r="V1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>138</v>
+      </c>
+      <c r="S6" t="s">
         <v>135</v>
       </c>
-      <c r="Q6" t="s">
-        <v>139</v>
-      </c>
-      <c r="S6" t="s">
-        <v>136</v>
-      </c>
       <c r="U6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>157</v>
+      </c>
+      <c r="S8" t="s">
         <v>97</v>
       </c>
-      <c r="Q8" t="s">
-        <v>158</v>
-      </c>
-      <c r="S8" t="s">
-        <v>98</v>
-      </c>
       <c r="U8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S9" t="s">
+        <v>78</v>
+      </c>
+      <c r="U9" t="s">
+        <v>131</v>
+      </c>
+      <c r="W9" t="s">
         <v>79</v>
-      </c>
-      <c r="U9" t="s">
-        <v>132</v>
-      </c>
-      <c r="W9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O10" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>119</v>
+      </c>
+      <c r="S10" t="s">
         <v>173</v>
       </c>
-      <c r="Q10" t="s">
-        <v>120</v>
-      </c>
-      <c r="S10" t="s">
-        <v>174</v>
-      </c>
       <c r="U10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -6741,609 +6548,609 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>224</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>225</v>
       </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>381</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
         <v>401</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>227</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
         <v>382</v>
       </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>402</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" t="s">
         <v>383</v>
       </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>384</v>
-      </c>
       <c r="V1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" t="s">
+        <v>378</v>
+      </c>
+      <c r="I6" t="s">
         <v>254</v>
       </c>
-      <c r="C6" t="s">
-        <v>334</v>
-      </c>
-      <c r="E6" t="s">
-        <v>374</v>
-      </c>
-      <c r="G6" t="s">
-        <v>379</v>
-      </c>
-      <c r="I6" t="s">
-        <v>255</v>
-      </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q6" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" t="s">
         <v>91</v>
       </c>
-      <c r="S6" t="s">
-        <v>92</v>
-      </c>
       <c r="U6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M7" t="s">
         <v>243</v>
       </c>
-      <c r="K7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M7" t="s">
-        <v>244</v>
-      </c>
       <c r="O7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" t="s">
+        <v>372</v>
+      </c>
+      <c r="I8" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O8" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>205</v>
+      </c>
+      <c r="S8" t="s">
         <v>222</v>
       </c>
-      <c r="G8" t="s">
-        <v>373</v>
-      </c>
-      <c r="I8" t="s">
-        <v>264</v>
-      </c>
-      <c r="K8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" t="s">
-        <v>262</v>
-      </c>
-      <c r="O8" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>206</v>
-      </c>
-      <c r="S8" t="s">
-        <v>223</v>
-      </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AA8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" t="s">
         <v>252</v>
       </c>
-      <c r="C9" t="s">
-        <v>253</v>
-      </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" t="s">
+        <v>288</v>
+      </c>
+      <c r="M9" t="s">
+        <v>337</v>
+      </c>
+      <c r="O9" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>313</v>
+      </c>
+      <c r="S9" t="s">
+        <v>308</v>
+      </c>
+      <c r="U9" t="s">
+        <v>272</v>
+      </c>
+      <c r="W9" t="s">
         <v>146</v>
       </c>
-      <c r="K9" t="s">
-        <v>289</v>
-      </c>
-      <c r="M9" t="s">
-        <v>338</v>
-      </c>
-      <c r="O9" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>314</v>
-      </c>
-      <c r="S9" t="s">
-        <v>309</v>
-      </c>
-      <c r="U9" t="s">
-        <v>273</v>
-      </c>
-      <c r="W9" t="s">
-        <v>147</v>
-      </c>
       <c r="Y9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>300</v>
+      </c>
+      <c r="K11" t="s">
+        <v>149</v>
+      </c>
+      <c r="M11" t="s">
+        <v>279</v>
+      </c>
+      <c r="O11" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>109</v>
+      </c>
+      <c r="S11" t="s">
         <v>129</v>
       </c>
-      <c r="E11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" t="s">
-        <v>301</v>
-      </c>
-      <c r="K11" t="s">
-        <v>150</v>
-      </c>
-      <c r="M11" t="s">
-        <v>280</v>
-      </c>
-      <c r="O11" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>110</v>
-      </c>
-      <c r="S11" t="s">
-        <v>130</v>
-      </c>
       <c r="U11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Y11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
+        <v>404</v>
+      </c>
+      <c r="I18" t="s">
         <v>405</v>
       </c>
-      <c r="I18" t="s">
-        <v>406</v>
-      </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -7364,331 +7171,331 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>407</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>364</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
         <v>408</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q9" t="s">
         <v>79</v>
-      </c>
-      <c r="M9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -7709,526 +7516,526 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>411</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>299</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
         <v>227</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>401</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>382</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" t="s">
         <v>412</v>
       </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>300</v>
-      </c>
-      <c r="R1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" t="s">
-        <v>228</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" t="s">
-        <v>413</v>
-      </c>
       <c r="X1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>242</v>
+      </c>
+      <c r="M6" t="s">
+        <v>235</v>
+      </c>
+      <c r="O6" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>145</v>
+      </c>
+      <c r="S6" t="s">
         <v>254</v>
       </c>
-      <c r="C6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" t="s">
-        <v>334</v>
-      </c>
-      <c r="G6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" t="s">
-        <v>243</v>
-      </c>
-      <c r="M6" t="s">
-        <v>236</v>
-      </c>
-      <c r="O6" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>146</v>
-      </c>
-      <c r="S6" t="s">
-        <v>255</v>
-      </c>
       <c r="U6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Y6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Y7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AA7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
         <v>252</v>
       </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>253</v>
-      </c>
       <c r="G8" t="s">
+        <v>288</v>
+      </c>
+      <c r="I8" t="s">
+        <v>378</v>
+      </c>
+      <c r="K8" t="s">
+        <v>261</v>
+      </c>
+      <c r="M8" t="s">
+        <v>373</v>
+      </c>
+      <c r="O8" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>414</v>
+      </c>
+      <c r="S8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U8" t="s">
+        <v>205</v>
+      </c>
+      <c r="W8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y8" t="s">
         <v>289</v>
       </c>
-      <c r="I8" t="s">
-        <v>379</v>
-      </c>
-      <c r="K8" t="s">
-        <v>262</v>
-      </c>
-      <c r="M8" t="s">
-        <v>374</v>
-      </c>
-      <c r="O8" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>415</v>
-      </c>
-      <c r="S8" t="s">
-        <v>106</v>
-      </c>
-      <c r="U8" t="s">
-        <v>206</v>
-      </c>
-      <c r="W8" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>290</v>
-      </c>
       <c r="AA8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Y9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Y10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" t="s">
         <v>157</v>
       </c>
-      <c r="C17" t="s">
-        <v>158</v>
-      </c>
       <c r="E17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -8241,11 +8048,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C358DE-B36E-432D-931E-30C2744E941B}">
   <dimension ref="A1:AS44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomRight" activeCell="AP35" sqref="AP35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8344,11 +8151,11 @@
     </row>
     <row r="3" spans="1:45" ht="18.75" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B3" s="31"/>
       <c r="D3" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>15</v>
@@ -8737,7 +8544,7 @@
     </row>
     <row r="10" spans="1:45" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="30" t="s">
-        <v>497</v>
+        <v>434</v>
       </c>
       <c r="B10" s="29"/>
       <c r="D10" s="19" t="str">
@@ -9371,9 +9178,6 @@
         <v>Schulfahrt</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="AN23" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="24" spans="1:40">
       <c r="A24" s="31"/>
@@ -9387,18 +9191,6 @@
         <v>Fahrtenprogramm</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="X24" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>436</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>433</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>443</v>
-      </c>
     </row>
     <row r="25" spans="1:40">
       <c r="A25" s="8"/>
@@ -9409,21 +9201,6 @@
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="T25" t="s">
-        <v>492</v>
-      </c>
-      <c r="X25" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>441</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>442</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>495</v>
-      </c>
     </row>
     <row r="26" spans="1:40">
       <c r="A26" s="8"/>
@@ -9433,15 +9210,6 @@
         <v>Fahrtenerlass</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="T26" t="s">
-        <v>491</v>
-      </c>
-      <c r="X26" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>488</v>
-      </c>
     </row>
     <row r="27" spans="1:40">
       <c r="A27" s="8"/>
@@ -9484,88 +9252,48 @@
         <f>data_1_1!A29</f>
         <v>Wandererlass</v>
       </c>
-      <c r="F31" t="s">
-        <v>436</v>
-      </c>
-      <c r="H31" t="s">
-        <v>436</v>
-      </c>
-      <c r="J31" t="s">
-        <v>436</v>
-      </c>
-      <c r="N31" t="s">
-        <v>436</v>
-      </c>
-      <c r="P31" t="s">
-        <v>436</v>
-      </c>
     </row>
     <row r="32" spans="1:40">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="D32" s="2"/>
-      <c r="F32" t="s">
-        <v>439</v>
-      </c>
-      <c r="H32" t="s">
-        <v>437</v>
-      </c>
-      <c r="J32" t="s">
-        <v>494</v>
-      </c>
-      <c r="N32" t="s">
-        <v>496</v>
-      </c>
-      <c r="P32" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="D33" s="5"/>
-      <c r="J33" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="D34" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="N34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="D35" s="20" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:4">
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:4">
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:4">
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:4">
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:4">
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:4">
       <c r="D42" s="28"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:4">
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:4">
       <c r="D44" s="5"/>
     </row>
   </sheetData>
@@ -9687,10 +9415,10 @@
   <dimension ref="A1:AT33"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomRight" activeCell="AN17" sqref="AN17:AU24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9745,7 +9473,7 @@
   <sheetData>
     <row r="1" spans="1:46" ht="18.75">
       <c r="A1" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="32"/>
       <c r="D1" s="3"/>
@@ -9867,7 +9595,7 @@
     </row>
     <row r="3" spans="1:46">
       <c r="A3" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="35"/>
       <c r="D3" s="7" t="s">
@@ -10011,70 +9739,70 @@
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -10241,7 +9969,7 @@
     </row>
     <row r="8" spans="1:46" ht="15" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="31"/>
       <c r="D8" s="2" t="str">
@@ -10335,7 +10063,7 @@
     </row>
     <row r="9" spans="1:46" ht="15" customHeight="1">
       <c r="A9" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="35"/>
       <c r="D9" s="19" t="str">
@@ -11111,9 +10839,7 @@
       <c r="AJ19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AN19" s="2"/>
-      <c r="AP19" s="2" t="s">
-        <v>455</v>
-      </c>
+      <c r="AP19" s="2"/>
       <c r="AR19" s="2"/>
       <c r="AT19" s="2"/>
     </row>
@@ -11160,9 +10886,7 @@
       <c r="AJ20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AN20" s="2"/>
-      <c r="AP20" s="2" t="s">
-        <v>454</v>
-      </c>
+      <c r="AP20" s="2"/>
       <c r="AR20" s="2"/>
       <c r="AT20" s="2"/>
     </row>
@@ -11241,9 +10965,7 @@
       <c r="R22" s="2"/>
       <c r="T22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="X22" s="2" t="s">
-        <v>449</v>
-      </c>
+      <c r="X22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AD22" s="2"/>
@@ -11258,7 +10980,7 @@
     </row>
     <row r="23" spans="1:46" ht="15" customHeight="1">
       <c r="A23" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="31"/>
       <c r="D23" s="19" t="str">
@@ -11283,16 +11005,10 @@
       <c r="R23" s="2"/>
       <c r="T23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="X23" s="2" t="s">
-        <v>450</v>
-      </c>
+      <c r="X23" s="2"/>
       <c r="Z23" s="2"/>
-      <c r="AB23" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="AD23" s="24" t="s">
-        <v>452</v>
-      </c>
+      <c r="AB23" s="2"/>
+      <c r="AD23" s="24"/>
       <c r="AF23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AJ23" s="2"/>
@@ -11415,12 +11131,8 @@
       <c r="H27" s="2"/>
       <c r="J27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>433</v>
-      </c>
+      <c r="N27" s="2"/>
+      <c r="P27" s="2"/>
       <c r="R27" s="2"/>
       <c r="T27" s="2"/>
       <c r="V27" s="2"/>
@@ -11451,12 +11163,8 @@
       <c r="H28" s="2"/>
       <c r="J28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>448</v>
-      </c>
+      <c r="N28" s="2"/>
+      <c r="P28" s="2"/>
       <c r="R28" s="2"/>
       <c r="T28" s="2"/>
       <c r="V28" s="2"/>
@@ -11484,9 +11192,7 @@
       <c r="H29" s="2"/>
       <c r="J29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="N29" s="2" t="s">
-        <v>447</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="P29" s="2"/>
       <c r="R29" s="2"/>
       <c r="T29" s="2"/>
@@ -11525,30 +11231,18 @@
       <c r="AH30" s="2"/>
       <c r="AJ30" s="2"/>
       <c r="AL30" s="2"/>
-      <c r="AN30" s="2" t="s">
-        <v>456</v>
-      </c>
+      <c r="AN30" s="2"/>
       <c r="AP30" s="2"/>
       <c r="AR30" s="2"/>
       <c r="AT30" s="2"/>
     </row>
-    <row r="31" spans="1:46">
-      <c r="AN31" t="s">
-        <v>453</v>
-      </c>
-    </row>
     <row r="32" spans="1:46">
       <c r="B32" t="s">
-        <v>444</v>
-      </c>
-      <c r="F32" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="33" spans="6:6">
-      <c r="F33" s="23" t="s">
-        <v>445</v>
-      </c>
+      <c r="F33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11687,10 +11381,10 @@
   <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P33" sqref="P33"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11734,7 +11428,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="18.75">
       <c r="A1" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="32"/>
       <c r="D1" s="3"/>
@@ -12568,9 +12262,7 @@
       <c r="L21" s="2"/>
       <c r="N21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="R21" s="2" t="s">
-        <v>459</v>
-      </c>
+      <c r="R21" s="2"/>
       <c r="T21" s="2"/>
       <c r="V21" s="2"/>
       <c r="X21" s="2"/>
@@ -12593,15 +12285,9 @@
       </c>
       <c r="H22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="L22" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>475</v>
-      </c>
+      <c r="L22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="P22" s="2"/>
       <c r="R22" s="2"/>
       <c r="T22" s="2"/>
       <c r="V22" s="2"/>
@@ -13019,10 +12705,10 @@
   <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD7" sqref="AD7"/>
+      <selection pane="bottomRight" activeCell="AB17" sqref="AB17:AR25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13067,7 +12753,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="18.75">
       <c r="A1" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="32"/>
       <c r="D1" s="3"/>
@@ -13164,7 +12850,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="35"/>
       <c r="D3" s="7" t="s">
@@ -13278,55 +12964,55 @@
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -13458,7 +13144,7 @@
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="31"/>
       <c r="D8" s="2" t="str">
@@ -13532,7 +13218,7 @@
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
       <c r="A9" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="35"/>
       <c r="D9" s="2" t="str">
@@ -14168,16 +13854,10 @@
       <c r="X19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AD19" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="AF19" s="2" t="s">
-        <v>466</v>
-      </c>
+      <c r="AD19" s="2"/>
+      <c r="AF19" s="2"/>
       <c r="AH19" s="2"/>
-      <c r="AJ19" s="2" t="s">
-        <v>469</v>
-      </c>
+      <c r="AJ19" s="2"/>
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="31"/>
@@ -14214,15 +13894,13 @@
       <c r="Z20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AD20" s="2"/>
-      <c r="AF20" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="AF20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AJ20" s="2"/>
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="31"/>
       <c r="D21" s="2" t="str">
@@ -14257,9 +13935,7 @@
       <c r="Z21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AD21" s="2"/>
-      <c r="AF21" s="2" t="s">
-        <v>468</v>
-      </c>
+      <c r="AF21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
@@ -14315,9 +13991,7 @@
       <c r="R23" s="2"/>
       <c r="T23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="X23" s="2" t="s">
-        <v>464</v>
-      </c>
+      <c r="X23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AD23" s="2"/>
@@ -14407,9 +14081,7 @@
       <c r="F27" s="2"/>
       <c r="H27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="L27" s="2" t="s">
-        <v>463</v>
-      </c>
+      <c r="L27" s="2"/>
       <c r="N27" s="2"/>
       <c r="P27" s="2"/>
       <c r="R27" s="2"/>
@@ -14447,15 +14119,9 @@
     <row r="29" spans="1:36">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
-      <c r="D29" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>462</v>
-      </c>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="J29" s="2"/>
       <c r="L29" s="2"/>
       <c r="N29" s="2"/>
@@ -14755,11 +14421,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495A6E9D-27ED-4DD3-A7DA-40668FB4DF5D}">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14794,7 +14460,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75">
       <c r="A1" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="32"/>
       <c r="D1" s="3"/>
@@ -15400,15 +15066,9 @@
         <v>Schüler</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>473</v>
-      </c>
+      <c r="J19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="P19" s="2"/>
       <c r="R19" s="2"/>
       <c r="T19" s="2"/>
@@ -15679,9 +15339,7 @@
     </row>
     <row r="33" spans="4:26">
       <c r="D33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>471</v>
-      </c>
+      <c r="F33" s="2"/>
       <c r="H33" s="2"/>
       <c r="J33" s="2"/>
       <c r="L33" s="2"/>
@@ -15750,9 +15408,7 @@
       <c r="Z37" s="5"/>
     </row>
     <row r="38" spans="4:26">
-      <c r="D38" s="5" t="s">
-        <v>470</v>
-      </c>
+      <c r="D38" s="5"/>
       <c r="F38" s="5"/>
       <c r="H38" s="5"/>
       <c r="J38" s="5"/>
@@ -15904,11 +15560,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9053410A-4925-4240-B2B7-CA1B973EF976}">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S41" sqref="S41:S42"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25:R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15949,7 +15605,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="18.75">
       <c r="A1" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="32"/>
       <c r="D1" s="3"/>
@@ -16031,7 +15687,7 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="35"/>
       <c r="D3" s="7" t="s">
@@ -16127,46 +15783,46 @@
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -16277,7 +15933,7 @@
     </row>
     <row r="8" spans="1:30" ht="15" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="31"/>
       <c r="D8" s="2" t="str">
@@ -16339,7 +15995,7 @@
     </row>
     <row r="9" spans="1:30" ht="15" customHeight="1">
       <c r="A9" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="35"/>
       <c r="D9" s="2" t="str">
@@ -16919,7 +16575,7 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="31"/>
       <c r="D21" s="2" t="str">
@@ -17059,9 +16715,7 @@
       <c r="H26" s="2"/>
       <c r="J26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="N26" s="2" t="s">
-        <v>476</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="P26" s="2"/>
       <c r="R26" s="2"/>
       <c r="T26" s="2"/>
@@ -17079,9 +16733,7 @@
       <c r="H27" s="2"/>
       <c r="J27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>477</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="P27" s="2"/>
       <c r="R27" s="2"/>
       <c r="T27" s="2"/>
@@ -17353,8 +17005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D698099-2A34-4243-B0EB-32BC8FEF528C}">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView zoomScale="158" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F48" sqref="F48"/>
       <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
       <selection pane="bottomRight" activeCell="T23" sqref="T23"/>
@@ -17387,7 +17039,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="32"/>
       <c r="D1" s="3"/>
@@ -18053,13 +17705,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD4CDF1-1618-4140-B0AF-5B77D94BC0BF}">
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F48" sqref="F48"/>
       <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -18099,7 +17751,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="18.75">
       <c r="A1" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="32"/>
       <c r="D1" s="3"/>
@@ -18181,7 +17833,7 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="35"/>
       <c r="D3" s="7" t="s">
@@ -18277,46 +17929,46 @@
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="D5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -18427,7 +18079,7 @@
     </row>
     <row r="8" spans="1:30" ht="15" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="31"/>
       <c r="D8" s="2" t="str">
@@ -18489,7 +18141,7 @@
     </row>
     <row r="9" spans="1:30" ht="15" customHeight="1">
       <c r="A9" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="35"/>
       <c r="D9" s="2" t="str">
@@ -18967,12 +18619,8 @@
       <c r="T18" s="2"/>
       <c r="V18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Z18" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>487</v>
-      </c>
+      <c r="Z18" s="2"/>
+      <c r="AB18" s="2"/>
       <c r="AD18" s="2"/>
     </row>
     <row r="19" spans="1:30">
@@ -19002,15 +18650,9 @@
       <c r="P19" s="2"/>
       <c r="R19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="V19" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="Z19" s="24" t="s">
-        <v>486</v>
-      </c>
+      <c r="V19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Z19" s="24"/>
       <c r="AB19" s="2"/>
       <c r="AD19" s="2"/>
     </row>
@@ -19033,12 +18675,8 @@
       <c r="L20" s="2"/>
       <c r="N20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="R20" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>483</v>
-      </c>
+      <c r="R20" s="2"/>
+      <c r="T20" s="2"/>
       <c r="V20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Z20" s="2"/>
@@ -19047,7 +18685,7 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="31"/>
       <c r="D21" s="2" t="str">
@@ -19059,9 +18697,7 @@
       <c r="J21" s="2"/>
       <c r="L21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="P21" s="2" t="s">
-        <v>480</v>
-      </c>
+      <c r="P21" s="2"/>
       <c r="R21" s="2"/>
       <c r="T21" s="2"/>
       <c r="V21" s="2"/>
@@ -19126,14 +18762,6 @@
     </row>
     <row r="25" spans="1:30">
       <c r="D25" s="2"/>
-    </row>
-    <row r="27" spans="1:30">
-      <c r="D27" t="s">
-        <v>478</v>
-      </c>
-      <c r="H27" t="s">
-        <v>479</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
